--- a/CashFlow/ROK_cashflow.xlsx
+++ b/CashFlow/ROK_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2581000000.0</v>
+        <v>683200000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2529000000.0</v>
+        <v>-11600000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1889700000.0</v>
+        <v>30400000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1377900000.0</v>
+        <v>30800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>711800000.0</v>
+        <v>69000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>49200000.0</v>
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>771000000.0</v>
+        <v>2882000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>16300000.0</v>
+        <v>2819000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>703400000.0</v>
+        <v>2806000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
